--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neo/Desktop/text2sql/text2sql_prod/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neo/Desktop/DataWorksAI/text2sql_prod/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15EFA57-DBEA-0A48-A252-BEE680780C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE90B7D7-8F81-5E43-A994-3EAF117C72D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16040" xr2:uid="{AEEAE0F9-1A2B-0C42-B685-E0A53EC39443}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Human Language </t>
   </si>
@@ -50,6 +50,14 @@
     <t>SELECT COUNT(*) 
 FROM hd2022 
 WHERE city = 'Boston';</t>
+  </si>
+  <si>
+    <t>What is the address of the University of California, Berkeley?</t>
+  </si>
+  <si>
+    <t>SELECT pcaddr
+FROM ic2022campuses
+WHERE pcinstnm = 'University of California, Berkeley';</t>
   </si>
 </sst>
 </file>
@@ -424,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418D210D-A9F4-C34A-9D63-AC1F08C1D997}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,6 +460,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neo/Desktop/DataWorksAI/text2sql_prod/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE90B7D7-8F81-5E43-A994-3EAF117C72D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EFC8D4-12D4-D94B-956F-8520BB6FE287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16040" xr2:uid="{AEEAE0F9-1A2B-0C42-B685-E0A53EC39443}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t xml:space="preserve">Human Language </t>
   </si>
@@ -58,13 +58,102 @@
     <t>SELECT pcaddr
 FROM ic2022campuses
 WHERE pcinstnm = 'University of California, Berkeley';</t>
+  </si>
+  <si>
+    <t>What is the total number of institutions listed in the dataset?</t>
+  </si>
+  <si>
+    <t>Can you find the street address for Stanford University?</t>
+  </si>
+  <si>
+    <t>List all institutions in california</t>
+  </si>
+  <si>
+    <t>Which states have the highest number of institutions?</t>
+  </si>
+  <si>
+    <t>Are there any institutions in Alaska?</t>
+  </si>
+  <si>
+    <t>Identify institutions that do not participate in Title IV but have a deferment agreement.</t>
+  </si>
+  <si>
+    <t>How many institutions are currently not active?</t>
+  </si>
+  <si>
+    <t>What is the identification number for Harvard University?</t>
+  </si>
+  <si>
+    <t>Top 10 research universities.</t>
+  </si>
+  <si>
+    <t>Top 5 research universities in massachusetts</t>
+  </si>
+  <si>
+    <t>How many institutions are located in rural versus urban areas?</t>
+  </si>
+  <si>
+    <t>SELECT pcaddr
+FROM ic2022campusesWHERE pcinstnm = 'University of California, Berkeley';</t>
+  </si>
+  <si>
+    <t>SELECT ADDR
+FROM hd2022
+WHERE INSTNM = 'Stanford University';</t>
+  </si>
+  <si>
+    <t>SELECT instnm
+FROM hd2022
+WHERE stabbr = 'CA';</t>
+  </si>
+  <si>
+    <t>SELECT stabbr, COUNT(unitid) 
+FROM hd2022
+GROUP BY stabbr
+ORDER BY COUNT(unitid) DESC;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) 
+FROM hd2022 
+WHERE stabbr = 'AK';</t>
+  </si>
+  <si>
+    <t>SELECT pcinstnm
+FROM ic2022campuses
+WHERE pcopeflag = 0;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*)
+FROM ic2022campuses
+WHERE pcact = "1";</t>
+  </si>
+  <si>
+    <t>SELECT unitid
+FROM hd2022
+WHERE instnm = 'Harvard University';</t>
+  </si>
+  <si>
+    <t>SELECT hd.instnm
+FROM hd2022 hd
+WHERE hd.c15basic = 15
+ORDER BY hd.c18basic DESC
+LIMIT 10;</t>
+  </si>
+  <si>
+    <t>SELECT locale, COUNT(*) 
+FROM hd2022 
+GROUP BY locale;</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(unitid) AS total_institutions
+FROM hd2022;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,16 +161,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -89,14 +196,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418D210D-A9F4-C34A-9D63-AC1F08C1D997}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,6 +596,102 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neo/Desktop/DataWorksAI/text2sql_prod/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EFC8D4-12D4-D94B-956F-8520BB6FE287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396F7F2D-659F-B345-8401-46375ED89FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16040" xr2:uid="{AEEAE0F9-1A2B-0C42-B685-E0A53EC39443}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16040" activeTab="1" xr2:uid="{AEEAE0F9-1A2B-0C42-B685-E0A53EC39443}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t xml:space="preserve">Human Language </t>
   </si>
@@ -52,108 +54,137 @@
 WHERE city = 'Boston';</t>
   </si>
   <si>
-    <t>What is the address of the University of California, Berkeley?</t>
-  </si>
-  <si>
-    <t>SELECT pcaddr
-FROM ic2022campuses
-WHERE pcinstnm = 'University of California, Berkeley';</t>
-  </si>
-  <si>
-    <t>What is the total number of institutions listed in the dataset?</t>
-  </si>
-  <si>
-    <t>Can you find the street address for Stanford University?</t>
-  </si>
-  <si>
-    <t>List all institutions in california</t>
-  </si>
-  <si>
-    <t>Which states have the highest number of institutions?</t>
-  </si>
-  <si>
-    <t>Are there any institutions in Alaska?</t>
-  </si>
-  <si>
-    <t>Identify institutions that do not participate in Title IV but have a deferment agreement.</t>
-  </si>
-  <si>
-    <t>How many institutions are currently not active?</t>
-  </si>
-  <si>
-    <t>What is the identification number for Harvard University?</t>
-  </si>
-  <si>
-    <t>Top 10 research universities.</t>
-  </si>
-  <si>
-    <t>Top 5 research universities in massachusetts</t>
-  </si>
-  <si>
-    <t>How many institutions are located in rural versus urban areas?</t>
-  </si>
-  <si>
-    <t>SELECT pcaddr
-FROM ic2022campusesWHERE pcinstnm = 'University of California, Berkeley';</t>
-  </si>
-  <si>
-    <t>SELECT ADDR
-FROM hd2022
-WHERE INSTNM = 'Stanford University';</t>
-  </si>
-  <si>
-    <t>SELECT instnm
-FROM hd2022
-WHERE stabbr = 'CA';</t>
-  </si>
-  <si>
-    <t>SELECT stabbr, COUNT(unitid) 
-FROM hd2022
-GROUP BY stabbr
-ORDER BY COUNT(unitid) DESC;</t>
+    <t>How many colleges in California</t>
   </si>
   <si>
     <t>SELECT COUNT(*) 
 FROM hd2022 
-WHERE stabbr = 'AK';</t>
-  </si>
-  <si>
-    <t>SELECT pcinstnm
-FROM ic2022campuses
-WHERE pcopeflag = 0;</t>
-  </si>
-  <si>
-    <t>SELECT COUNT(*)
-FROM ic2022campuses
-WHERE pcact = "1";</t>
-  </si>
-  <si>
-    <t>SELECT unitid
-FROM hd2022
-WHERE instnm = 'Harvard University';</t>
-  </si>
-  <si>
-    <t>SELECT hd.instnm
-FROM hd2022 hd
-WHERE hd.c15basic = 15
-ORDER BY hd.c18basic DESC
-LIMIT 10;</t>
-  </si>
-  <si>
-    <t>SELECT locale, COUNT(*) 
-FROM hd2022 
-GROUP BY locale;</t>
-  </si>
-  <si>
-    <t>SELECT COUNT(unitid) AS total_institutions
-FROM hd2022;</t>
+WHERE stabbr = 'CA';</t>
+  </si>
+  <si>
+    <t>What is the address of the New York University?</t>
+  </si>
+  <si>
+    <t>SELECT addr
+FROM hd2022 WHERE instnm = 'New York  University';</t>
+  </si>
+  <si>
+    <t>List the colleges where men's admission are more than women's admissions</t>
+  </si>
+  <si>
+    <t>Show institutions with the highest number of applicants</t>
+  </si>
+  <si>
+    <t>Retrieve colleges with a completion of college-preparatory program percentage
+between 50% and 70%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find institutions with more women applicants than men applicants, but a higher 
+admission rate for men applicants compared to women applicants.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find institutions with a high number of applicants, but a lower admission rate for 
+legacy applicants compared to non-legacy applicants
+</t>
+  </si>
+  <si>
+    <t>List colleges where the number of admissions is significantly higher than the number 
+of applicants, in California</t>
+  </si>
+  <si>
+    <t>list the college names with high admissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list institutions in washington with good performance
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List colleges with most applicants
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find institutions with a significant difference between the number of male and female 
+applicants, but a similar admission rate for both genders
+</t>
+  </si>
+  <si>
+    <t>SELECT ic.pcinstnm
+FROM ic2022campuses ic
+JOIN adm2022 a ON ic.unitid = a.unitid
+WHERE a.admcon1 &gt; a.admcon2;</t>
+  </si>
+  <si>
+    <t>SELECT ic.pcinstnm, a.applcn
+FROM adm2022 a
+JOIN ic2022campuses ic ON a.unitid = ic.unitid
+ORDER BY a.applcn DESC
+LIMIT 3;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT ic.pcinstnm
+FROM adm2022 a
+JOIN ic2022campuses ic ON a.unitid = ic.unitid
+WHERE a.admcon4 BETWEEN 50 AND 70;
+LIMIT 3; 
+</t>
+  </si>
+  <si>
+    <t>SELECT ic.pcinstnm
+FROM ic2022campuses ic
+JOIN adm2022 a ON ic.unitid = a.unitid
+WHERE a.applcnw &gt; a.applcn
+AND a.admcon2 &gt; a.admcon1;</t>
+  </si>
+  <si>
+    <t>SELECT ic.pcinstnm, a.applcn, a.admssn, a.applcnm, a.applcnw, a.admssnm, a.admssnw
+FROM a.adm2022
+JOIN ic2022campuses ic on a.UNITID = ic.UNITID
+WHERE a.applcn &gt; 1000
+AND (a.admssnm::numeric / a.applcnm::numeric) &lt; (a.admssnw::numeric / a.applcnw::numeric);</t>
+  </si>
+  <si>
+    <t>SELECT ic.pcinstnm
+FROM adm2022 a
+JOIN c2022dep c ON a.unitid = c.unitid
+JOIN ic2022campuses ic ON a.unitid = ic.unitid
+WHERE a.admssn &gt; a.applcn
+AND c.cipcode = 6.0;</t>
+  </si>
+  <si>
+    <t>SELECT ic.pcinstnm
+FROM adm2022 a
+JOIN ic2022campuses ic ON a.UNITID = ic.UNITID
+WHERE a.admssn &gt; 5000;</t>
+  </si>
+  <si>
+    <t>SELECT ic.pcinstnm
+FROM hd2022 h
+JOIN ic2022campuses ic
+ON h.UNITID = ic.UNITID
+WHERE stabbr = 'WA';</t>
+  </si>
+  <si>
+    <t>SELECT ic.pcinstnm
+FROM adm2022 a
+JOIN ic2022campuses ic
+ON ic.UNITID = a.UNITID
+ORDER BY a.applcn DESC</t>
+  </si>
+  <si>
+    <t>SELECT ic.pcinstnm
+FROM adm2022 a
+JOIN ic2022campuses ic
+ON ic.UNITID = a.UNITID
+WHERE ABS(a.applcnm - a.applcnw) &gt; 500
+AND ABS((a.admssnm::numeric / a.applcnm::numeric) - (a.admssnw::numeric / a.applcnw::numeric)) &lt; 0.05;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -164,6 +195,23 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Times New Roman&quot;"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF25252D"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -215,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -225,6 +273,29 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,17 +633,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418D210D-A9F4-C34A-9D63-AC1F08C1D997}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="51">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -588,108 +659,845 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225D9CD0-98EE-BF4C-B70C-20B3F5A627A7}">
+  <dimension ref="A1:B171"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="107.5" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="68">
+      <c r="A2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="85">
+      <c r="A3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="102">
+      <c r="A4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="85">
+      <c r="A5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="119">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="102">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="68">
+      <c r="A8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="85">
+      <c r="A9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="85">
+      <c r="A10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="119">
+      <c r="A11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="10"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="9"/>
+      <c r="B54" s="10"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="9"/>
+      <c r="B62" s="10"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="9"/>
+      <c r="B63" s="10"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="9"/>
+      <c r="B64" s="10"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="9"/>
+      <c r="B66" s="10"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="9"/>
+      <c r="B67" s="10"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="9"/>
+      <c r="B68" s="10"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="9"/>
+      <c r="B69" s="10"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="9"/>
+      <c r="B70" s="10"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="9"/>
+      <c r="B71" s="10"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="9"/>
+      <c r="B72" s="10"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="9"/>
+      <c r="B73" s="10"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="9"/>
+      <c r="B74" s="10"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="9"/>
+      <c r="B75" s="10"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="9"/>
+      <c r="B76" s="10"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="9"/>
+      <c r="B77" s="10"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="9"/>
+      <c r="B78" s="10"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="9"/>
+      <c r="B79" s="10"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="9"/>
+      <c r="B80" s="10"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="9"/>
+      <c r="B81" s="10"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="9"/>
+      <c r="B82" s="10"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="9"/>
+      <c r="B83" s="10"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="9"/>
+      <c r="B84" s="10"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="9"/>
+      <c r="B85" s="10"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="9"/>
+      <c r="B86" s="10"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="9"/>
+      <c r="B87" s="10"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="9"/>
+      <c r="B88" s="10"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="9"/>
+      <c r="B89" s="10"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="9"/>
+      <c r="B90" s="10"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="9"/>
+      <c r="B91" s="10"/>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="9"/>
+      <c r="B92" s="10"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="9"/>
+      <c r="B93" s="10"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="9"/>
+      <c r="B94" s="10"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="9"/>
+      <c r="B95" s="10"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="9"/>
+      <c r="B96" s="10"/>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="9"/>
+      <c r="B97" s="10"/>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="9"/>
+      <c r="B98" s="11"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="9"/>
+      <c r="B99" s="12"/>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="9"/>
+      <c r="B100" s="12"/>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="9"/>
+      <c r="B103" s="10"/>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="9"/>
+      <c r="B105" s="10"/>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="9"/>
+      <c r="B106" s="10"/>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="9"/>
+      <c r="B107" s="10"/>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="9"/>
+      <c r="B108" s="10"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="3"/>
+      <c r="B149" s="5"/>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="3"/>
+      <c r="B151" s="5"/>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="2"/>
+      <c r="B152" s="6"/>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="3"/>
+      <c r="B153" s="5"/>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="2"/>
+      <c r="B154" s="6"/>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="2"/>
+      <c r="B156" s="6"/>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="3"/>
+      <c r="B157" s="5"/>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="2"/>
+      <c r="B158" s="6"/>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="3"/>
+      <c r="B159" s="5"/>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="3"/>
+      <c r="B160" s="6"/>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="3"/>
+      <c r="B161" s="5"/>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="2"/>
+      <c r="B162" s="4"/>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="2"/>
+      <c r="B164" s="7"/>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="3"/>
+      <c r="B165" s="8"/>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="3"/>
+      <c r="B169" s="3"/>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB141CA-A5A6-7145-B7D2-F490F03340F9}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="51">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="51">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="102" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="102" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="102" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neo/Desktop/DataWorksAI/text2sql_prod/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E319FF0D-0280-B54D-950A-4251FB5FA26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1719663-9FDD-8E46-8507-E41B9AF3D23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16040" activeTab="1" xr2:uid="{AEEAE0F9-1A2B-0C42-B685-E0A53EC39443}"/>
   </bookViews>
@@ -229,12 +229,12 @@
   WHERE instnm = 'Michigan State University';</t>
   </si>
   <si>
-    <t>Total enrolled students at Harvard university?</t>
-  </si>
-  <si>
     <t>SELECT enrlt
   FROM adm2022
   WHERE unitid = 166027;</t>
+  </si>
+  <si>
+    <t>Total enrolled students at Harvard university</t>
   </si>
 </sst>
 </file>
@@ -771,7 +771,7 @@
   <dimension ref="A1:B171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -940,12 +940,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
